--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Resultados.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA57868D-9B46-45EE-BC74-7603AF0497CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE8CA9-77FC-4930-A7FC-479A98A03B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="2" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
+    <workbookView xWindow="12" yWindow="600" windowWidth="23028" windowHeight="12360" activeTab="2" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa A" sheetId="1" r:id="rId1"/>
@@ -600,6 +600,15 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>237</v>
+      </c>
+      <c r="C2">
+        <v>5.07</v>
+      </c>
+      <c r="D2">
+        <v>14.5</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -608,6 +617,15 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>112</v>
+      </c>
+      <c r="C3">
+        <v>2.52</v>
+      </c>
+      <c r="D3">
+        <v>14.5</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -615,6 +633,15 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>195</v>
+      </c>
+      <c r="C4">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D4">
+        <v>14.5</v>
       </c>
       <c r="E4">
         <v>3</v>

--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Resultados.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Resultados.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE8CA9-77FC-4930-A7FC-479A98A03B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B3E01A-470D-4E72-9373-52891447C63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="600" windowWidth="23028" windowHeight="12360" activeTab="2" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa A" sheetId="1" r:id="rId1"/>
     <sheet name="Mapa B" sheetId="2" r:id="rId2"/>
     <sheet name="Mapa C" sheetId="3" r:id="rId3"/>
+    <sheet name="Mapa D" sheetId="4" r:id="rId4"/>
+    <sheet name="Mapa E" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
   <si>
     <t>Parámetros</t>
   </si>
@@ -54,6 +56,18 @@
   </si>
   <si>
     <t>Corrida</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Primer conjunto</t>
+  </si>
+  <si>
+    <t>Segundo conjunto</t>
+  </si>
+  <si>
+    <t>Tiempo (min)</t>
   </si>
 </sst>
 </file>
@@ -573,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B5E1E-70FF-4D40-B85D-A1ACC4626F8A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,4 +664,430 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A613962-7B59-4F7B-9B59-3EE4D4C85931}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>22.57</v>
+      </c>
+      <c r="E2">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>19.09</v>
+      </c>
+      <c r="E3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>20.53</v>
+      </c>
+      <c r="E4">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>12.53</v>
+      </c>
+      <c r="E8">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7.17</v>
+      </c>
+      <c r="E9">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>20.49</v>
+      </c>
+      <c r="E10">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>8.23</v>
+      </c>
+      <c r="E11">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>12.03</v>
+      </c>
+      <c r="E12">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>9.51</v>
+      </c>
+      <c r="E13">
+        <v>13.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7925494-D179-4292-9416-4388B6132AF1}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>42.87</v>
+      </c>
+      <c r="E3">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>62.69</v>
+      </c>
+      <c r="E4">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>9.33</v>
+      </c>
+      <c r="E8">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>14.38</v>
+      </c>
+      <c r="E9">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E10">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E11">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>11.18</v>
+      </c>
+      <c r="E12">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>8.67</v>
+      </c>
+      <c r="E13">
+        <v>15.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Resultados.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Resultados.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B3E01A-470D-4E72-9373-52891447C63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D2FD13-D257-4EBE-9EBB-0800FB2EEA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapa A" sheetId="1" r:id="rId1"/>
-    <sheet name="Mapa B" sheetId="2" r:id="rId2"/>
-    <sheet name="Mapa C" sheetId="3" r:id="rId3"/>
-    <sheet name="Mapa D" sheetId="4" r:id="rId4"/>
-    <sheet name="Mapa E" sheetId="5" r:id="rId5"/>
+    <sheet name="Mapa A" sheetId="4" r:id="rId1"/>
+    <sheet name="Mapa B" sheetId="5" r:id="rId2"/>
+    <sheet name="Mapa C" sheetId="1" r:id="rId3"/>
+    <sheet name="Mapa D" sheetId="2" r:id="rId4"/>
+    <sheet name="Mapa E" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
   <si>
     <t>Parámetros</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Tiempo (min)</t>
+  </si>
+  <si>
+    <t>Promedio de iteraciones</t>
+  </si>
+  <si>
+    <t>Tiempo promedio (min)</t>
+  </si>
+  <si>
+    <t>Costo promedio</t>
   </si>
 </sst>
 </file>
@@ -103,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,6 +428,646 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A613962-7B59-4F7B-9B59-3EE4D4C85931}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>22.57</v>
+      </c>
+      <c r="E2">
+        <v>13.9</v>
+      </c>
+      <c r="H2" t="str">
+        <f>B2</f>
+        <v>Fase anterior</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(C2:C4)</f>
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:K2" si="0">AVERAGE(D2:D4)</f>
+        <v>20.73</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>19.09</v>
+      </c>
+      <c r="E3">
+        <v>13.9</v>
+      </c>
+      <c r="H3" t="str">
+        <f>B5</f>
+        <v>Paper</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(C5:C7)</f>
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:K3" si="1">AVERAGE(D5:D7)</f>
+        <v>13.409999999999998</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>20.53</v>
+      </c>
+      <c r="E4">
+        <v>13.9</v>
+      </c>
+      <c r="H4" t="str">
+        <f>B8</f>
+        <v>Primer conjunto</v>
+      </c>
+      <c r="I4" s="1">
+        <f>AVERAGE(C8:C10)</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:K4" si="2">AVERAGE(D8:D10)</f>
+        <v>13.396666666666667</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>15.44</v>
+      </c>
+      <c r="E5">
+        <v>17.41</v>
+      </c>
+      <c r="H5" t="str">
+        <f>B11</f>
+        <v>Segundo conjunto</v>
+      </c>
+      <c r="I5" s="1">
+        <f>AVERAGE(C11:C13)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:K5" si="3">AVERAGE(D11:D13)</f>
+        <v>9.923333333333332</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>16.11</v>
+      </c>
+      <c r="E6">
+        <v>16.239999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>8.68</v>
+      </c>
+      <c r="E7">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>12.53</v>
+      </c>
+      <c r="E8">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7.17</v>
+      </c>
+      <c r="E9">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>20.49</v>
+      </c>
+      <c r="E10">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>8.23</v>
+      </c>
+      <c r="E11">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>12.03</v>
+      </c>
+      <c r="E12">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>9.51</v>
+      </c>
+      <c r="E13">
+        <v>13.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7925494-D179-4292-9416-4388B6132AF1}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>15.07</v>
+      </c>
+      <c r="H2" t="str">
+        <f>B2</f>
+        <v>Fase anterior</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>39.666666666666664</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:K2" si="0">AVERAGE(D2:D4)</f>
+        <v>50.186666666666667</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>42.87</v>
+      </c>
+      <c r="E3">
+        <v>15.07</v>
+      </c>
+      <c r="H3" t="str">
+        <f>B5</f>
+        <v>Paper</v>
+      </c>
+      <c r="I3" s="1">
+        <f>AVERAGE(C5:C7)</f>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:K3" si="1">AVERAGE(D5:D7)</f>
+        <v>12.613333333333335</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="1"/>
+        <v>17.216666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>62.69</v>
+      </c>
+      <c r="E4">
+        <v>15.07</v>
+      </c>
+      <c r="H4" t="str">
+        <f>B8</f>
+        <v>Primer conjunto</v>
+      </c>
+      <c r="I4" s="1">
+        <f>AVERAGE(C8:C10)</f>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:K4" si="2">AVERAGE(D8:D10)</f>
+        <v>10.806666666666667</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>13.81</v>
+      </c>
+      <c r="E5">
+        <v>17.41</v>
+      </c>
+      <c r="H5" t="str">
+        <f>B11</f>
+        <v>Segundo conjunto</v>
+      </c>
+      <c r="I5" s="1">
+        <f>AVERAGE(C11:C13)</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:K5" si="3">AVERAGE(D11:D13)</f>
+        <v>8.2199999999999989</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="E7">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>9.33</v>
+      </c>
+      <c r="E8">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>14.38</v>
+      </c>
+      <c r="E9">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E10">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E11">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>11.18</v>
+      </c>
+      <c r="E12">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>8.67</v>
+      </c>
+      <c r="E13">
+        <v>15.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198F0EB0-A118-4F16-8798-B12BAB8DFA38}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -500,12 +1150,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB311B8-5CD4-4521-A639-45562D18A72A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,12 +1233,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B5E1E-70FF-4D40-B85D-A1ACC4626F8A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,430 +1314,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A613962-7B59-4F7B-9B59-3EE4D4C85931}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>22.57</v>
-      </c>
-      <c r="E2">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>19.09</v>
-      </c>
-      <c r="E3">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>20.53</v>
-      </c>
-      <c r="E4">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>12.53</v>
-      </c>
-      <c r="E8">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7.17</v>
-      </c>
-      <c r="E9">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>20.49</v>
-      </c>
-      <c r="E10">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>8.23</v>
-      </c>
-      <c r="E11">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>12.03</v>
-      </c>
-      <c r="E12">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>9.51</v>
-      </c>
-      <c r="E13">
-        <v>13.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7925494-D179-4292-9416-4388B6132AF1}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>38</v>
-      </c>
-      <c r="D2">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>15.07</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>42.87</v>
-      </c>
-      <c r="E3">
-        <v>15.07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>47</v>
-      </c>
-      <c r="D4">
-        <v>62.69</v>
-      </c>
-      <c r="E4">
-        <v>15.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>9.33</v>
-      </c>
-      <c r="E8">
-        <v>15.07</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14.38</v>
-      </c>
-      <c r="E9">
-        <v>15.07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="E10">
-        <v>15.07</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="E11">
-        <v>15.07</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>11.18</v>
-      </c>
-      <c r="E12">
-        <v>15.07</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>8.67</v>
-      </c>
-      <c r="E13">
-        <v>15.07</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Resultados.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D2FD13-D257-4EBE-9EBB-0800FB2EEA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2679890B-4C4F-4035-ADDE-E949EA0CBFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa A" sheetId="4" r:id="rId1"/>
@@ -83,6 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A613962-7B59-4F7B-9B59-3EE4D4C85931}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,15 +566,15 @@
       </c>
       <c r="I4" s="1">
         <f>AVERAGE(C8:C10)</f>
-        <v>13.333333333333334</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:K4" si="2">AVERAGE(D8:D10)</f>
-        <v>13.396666666666667</v>
+        <v>27.833333333333332</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>13.9</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -586,7 +590,7 @@
       <c r="D5">
         <v>15.44</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>17.41</v>
       </c>
       <c r="H5" t="str">
@@ -595,15 +599,15 @@
       </c>
       <c r="I5" s="1">
         <f>AVERAGE(C11:C13)</f>
-        <v>7.333333333333333</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5:K5" si="3">AVERAGE(D11:D13)</f>
-        <v>9.923333333333332</v>
+        <v>13.9</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>13.9</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -619,7 +623,7 @@
       <c r="D6">
         <v>16.11</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>16.239999999999998</v>
       </c>
     </row>
@@ -636,7 +640,7 @@
       <c r="D7">
         <v>8.68</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>17.41</v>
       </c>
     </row>
@@ -648,13 +652,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>12.53</v>
-      </c>
-      <c r="E8">
-        <v>13.9</v>
+        <v>35.54</v>
+      </c>
+      <c r="E8" s="2">
+        <v>13.87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -665,13 +669,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>7.17</v>
-      </c>
-      <c r="E9">
-        <v>13.9</v>
+        <v>32.75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>13.87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -682,13 +686,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>20.49</v>
-      </c>
-      <c r="E10">
-        <v>13.9</v>
+        <v>15.21</v>
+      </c>
+      <c r="E10" s="2">
+        <v>13.87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -699,13 +703,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>8.23</v>
-      </c>
-      <c r="E11">
-        <v>13.9</v>
+        <v>17.46</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13.87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -716,13 +720,13 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>12.03</v>
-      </c>
-      <c r="E12">
-        <v>13.9</v>
+        <v>13.75</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13.87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -733,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>9.51</v>
-      </c>
-      <c r="E13">
-        <v>13.9</v>
+        <v>10.49</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13.87</v>
       </c>
     </row>
   </sheetData>
@@ -751,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7925494-D179-4292-9416-4388B6132AF1}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,15 +886,15 @@
       </c>
       <c r="I4" s="1">
         <f>AVERAGE(C8:C10)</f>
-        <v>12.666666666666666</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:K4" si="2">AVERAGE(D8:D10)</f>
-        <v>10.806666666666667</v>
+        <v>33.716666666666669</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>15.07</v>
+        <v>15.050000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -915,15 +919,15 @@
       </c>
       <c r="I5" s="1">
         <f>AVERAGE(C11:C13)</f>
-        <v>10</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5:K5" si="3">AVERAGE(D11:D13)</f>
-        <v>8.2199999999999989</v>
+        <v>19.443333333333332</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>15.07</v>
+        <v>15.050000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -968,13 +972,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>9.33</v>
+        <v>29.75</v>
       </c>
       <c r="E8">
-        <v>15.07</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -985,13 +989,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>14.38</v>
+        <v>33.32</v>
       </c>
       <c r="E9">
-        <v>15.07</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1002,13 +1006,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>8.7100000000000009</v>
+        <v>38.08</v>
       </c>
       <c r="E10">
-        <v>15.07</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1019,13 +1023,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>4.8099999999999996</v>
+        <v>19.43</v>
       </c>
       <c r="E11">
-        <v>15.07</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1036,13 +1040,13 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>11.18</v>
+        <v>20.98</v>
       </c>
       <c r="E12">
-        <v>15.07</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1053,13 +1057,13 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>8.67</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="E13">
-        <v>15.07</v>
+        <v>15.05</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B5E1E-70FF-4D40-B85D-A1ACC4626F8A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Resultados.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2679890B-4C4F-4035-ADDE-E949EA0CBFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDF391F-5B5E-4E9B-9BAB-01B6BF2E750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa A" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="13">
   <si>
     <t>Parámetros</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Fase anterior</t>
-  </si>
-  <si>
-    <t>Tiempo (h)</t>
   </si>
   <si>
     <t>Corrida</t>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>Costo promedio</t>
+  </si>
+  <si>
+    <t>\cite{Aco_obs}</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B2" sqref="B2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +451,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -469,13 +469,13 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -527,9 +527,8 @@
       <c r="E3">
         <v>13.9</v>
       </c>
-      <c r="H3" t="str">
-        <f>B5</f>
-        <v>Paper</v>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
       <c r="I3">
         <f>AVERAGE(C5:C7)</f>
@@ -582,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -615,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -632,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -649,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -666,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -683,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -700,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -717,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>15</v>
@@ -734,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -755,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7925494-D179-4292-9416-4388B6132AF1}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -780,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -789,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -812,7 +811,7 @@
         <v>45</v>
       </c>
       <c r="E2">
-        <v>15.07</v>
+        <v>15.05</v>
       </c>
       <c r="H2" t="str">
         <f>B2</f>
@@ -828,7 +827,7 @@
       </c>
       <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>15.07</v>
+        <v>15.050000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -845,11 +844,10 @@
         <v>42.87</v>
       </c>
       <c r="E3">
-        <v>15.07</v>
-      </c>
-      <c r="H3" t="str">
-        <f>B5</f>
-        <v>Paper</v>
+        <v>15.05</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
       </c>
       <c r="I3" s="1">
         <f>AVERAGE(C5:C7)</f>
@@ -878,7 +876,7 @@
         <v>62.69</v>
       </c>
       <c r="E4">
-        <v>15.07</v>
+        <v>15.05</v>
       </c>
       <c r="H4" t="str">
         <f>B8</f>
@@ -902,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -935,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -952,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -969,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>27</v>
@@ -986,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>33</v>
@@ -1003,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -1020,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>25</v>
@@ -1037,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -1054,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -1073,80 +1071,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198F0EB0-A118-4F16-8798-B12BAB8DFA38}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>1.07</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>61.73</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>77</v>
+        <v>29.74</v>
+      </c>
+      <c r="H2" t="str">
+        <f>B2</f>
+        <v>Primer conjunto</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>26.333333333333332</v>
+      </c>
+      <c r="J2" s="1">
+        <f>AVERAGE(D2:D4)</f>
+        <v>60.956666666666671</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(E2:E4)</f>
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1.73</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>68.81</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>59</v>
+        <v>29.74</v>
+      </c>
+      <c r="H3" t="str">
+        <f>B5</f>
+        <v>Segundo conjunto</v>
+      </c>
+      <c r="I3" s="1">
+        <f>AVERAGE(C5:C7)</f>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="J3" s="1">
+        <f>AVERAGE(D5:D7)</f>
+        <v>40.25</v>
+      </c>
+      <c r="K3" s="1">
+        <f>AVERAGE(E5:E7)</f>
+        <v>29.936666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1.4</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>52.33</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>23.43</v>
+      </c>
+      <c r="E5">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>44.64</v>
+      </c>
+      <c r="E6">
+        <v>30.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>52.68</v>
+      </c>
+      <c r="E7">
+        <v>29.74</v>
       </c>
     </row>
   </sheetData>
@@ -1156,80 +1257,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB311B8-5CD4-4521-A639-45562D18A72A}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>85</v>
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>1.62</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>12.5</v>
+        <v>60.36</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>89</v>
+        <v>28.56</v>
+      </c>
+      <c r="H2" t="str">
+        <f>B2</f>
+        <v>Primer conjunto</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>31.333333333333332</v>
+      </c>
+      <c r="J2" s="1">
+        <f>AVERAGE(D2:D4)</f>
+        <v>59.973333333333336</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(E2:E4)</f>
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1.64</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>12.5</v>
+        <v>51.66</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>101</v>
+        <v>28.56</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1.84</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>12.5</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>28.56</v>
       </c>
     </row>
   </sheetData>
@@ -1239,80 +1378,118 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B5E1E-70FF-4D40-B85D-A1ACC4626F8A}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>237</v>
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5.07</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>14.5</v>
+        <v>73.28</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>112</v>
+        <v>29.74</v>
+      </c>
+      <c r="H2" t="str">
+        <f>B2</f>
+        <v>Primer conjunto</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="J2" s="1">
+        <f>AVERAGE(D2:D4)</f>
+        <v>61.76</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(E2:E4)</f>
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2.52</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>14.5</v>
+        <v>56.21</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>195</v>
+        <v>29.74</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>4.1900000000000004</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>14.5</v>
+        <v>55.79</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>29.74</v>
       </c>
     </row>
   </sheetData>
